--- a/СправочникАвто.xlsx
+++ b/СправочникАвто.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t xml:space="preserve">Марка</t>
   </si>
@@ -43,6 +43,27 @@
   </si>
   <si>
     <t xml:space="preserve">124 1.4 MultiAir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Запорожец</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗАЗ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мерседес</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toyota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yaris</t>
   </si>
 </sst>
 </file>
@@ -159,18 +180,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="42.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="42.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.86"/>
   </cols>
   <sheetData>
@@ -240,6 +261,74 @@
       </c>
       <c r="E4" s="0" t="n">
         <v>2017</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1960</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>2015</v>
       </c>
     </row>
   </sheetData>
@@ -264,9 +353,9 @@
       <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.04"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -367,7 +456,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/СправочникАвто.xlsx
+++ b/СправочникАвто.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
   <si>
     <t xml:space="preserve">Марка</t>
   </si>
@@ -39,19 +39,34 @@
     <t xml:space="preserve">по</t>
   </si>
   <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Привет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
+    <t xml:space="preserve">Abarth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ошибка</t>
   </si>
   <si>
     <t xml:space="preserve">124 1.4 MultiAir</t>
   </si>
   <si>
-    <t xml:space="preserve">33</t>
+    <t xml:space="preserve">Запорожец</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗАЗ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мерседес</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toyota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yaris</t>
   </si>
 </sst>
 </file>
@@ -168,13 +183,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:E4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="42.4"/>
@@ -219,10 +234,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>6</v>
@@ -236,7 +251,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>500</v>
@@ -248,6 +263,74 @@
         <v>6</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -270,10 +353,10 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="1" sqref="C2:E4 E19"/>
+      <selection pane="topLeft" activeCell="E19" activeCellId="1" sqref="C2:E8 E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.04"/>
   </cols>
@@ -373,10 +456,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C2:E4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C2:E8 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
